--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohitvernekar/Projects/Diffusion-Models-Time-Series-Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB0113E-D465-404B-AE75-4CD562784E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F3A748-157B-9746-862F-0649B65FA3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" activeTab="1" xr2:uid="{BCB15B2B-B855-5B46-8C88-5774E463232A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23320" xr2:uid="{BCB15B2B-B855-5B46-8C88-5774E463232A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Mean Absolute Error (MAE)</t>
   </si>
   <si>
     <t>Mean Squared Error (MSE)</t>
-  </si>
-  <si>
-    <t>Root Mean Squared Error (RMSE)</t>
-  </si>
-  <si>
-    <t>R² Score</t>
   </si>
   <si>
     <t>Mean</t>
@@ -411,26 +404,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,6 +432,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,465 +780,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FA6D8F-C0D8-EB44-9AC2-7F47344AABAE}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:W29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>138.91999999999999</v>
-      </c>
-      <c r="D2">
-        <v>23444.42</v>
-      </c>
-      <c r="E2">
-        <v>153.12</v>
-      </c>
-      <c r="F2">
-        <v>-1.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>137.69999999999999</v>
-      </c>
-      <c r="D3">
-        <v>22966.69</v>
-      </c>
-      <c r="E3">
-        <v>151.55000000000001</v>
-      </c>
-      <c r="F3">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>39.19</v>
-      </c>
-      <c r="D4">
-        <v>2693.19</v>
-      </c>
-      <c r="E4">
-        <v>51.9</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>7.21</v>
-      </c>
-      <c r="D5">
-        <v>74.180000000000007</v>
-      </c>
-      <c r="E5">
-        <v>8.61</v>
-      </c>
-      <c r="F5">
-        <v>-2.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>7.28</v>
-      </c>
-      <c r="D6">
-        <v>76.59</v>
-      </c>
-      <c r="E6">
-        <v>8.75</v>
-      </c>
-      <c r="F6">
-        <v>-2.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>1.87</v>
-      </c>
-      <c r="D7">
-        <v>6.23</v>
-      </c>
-      <c r="E7">
-        <v>2.5</v>
-      </c>
-      <c r="F7">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6.62</v>
-      </c>
-      <c r="D8">
-        <v>81.05</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>6.46</v>
-      </c>
-      <c r="D9">
-        <v>79.25</v>
-      </c>
-      <c r="E9">
-        <v>8.9</v>
-      </c>
-      <c r="F9">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>3.25</v>
-      </c>
-      <c r="D10">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="E10">
-        <v>4.18</v>
-      </c>
-      <c r="F10">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>6.25</v>
-      </c>
-      <c r="D11">
-        <v>55.05</v>
-      </c>
-      <c r="E11">
-        <v>7.42</v>
-      </c>
-      <c r="F11">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>6.17</v>
-      </c>
-      <c r="D12">
-        <v>53.81</v>
-      </c>
-      <c r="E12">
-        <v>7.34</v>
-      </c>
-      <c r="F12">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2.36</v>
-      </c>
-      <c r="D13">
-        <v>9.01</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>35.520000000000003</v>
-      </c>
-      <c r="D14">
-        <v>1778.26</v>
-      </c>
-      <c r="E14">
-        <v>42.17</v>
-      </c>
-      <c r="F14">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>35.81</v>
-      </c>
-      <c r="D15">
-        <v>1818.17</v>
-      </c>
-      <c r="E15">
-        <v>42.64</v>
-      </c>
-      <c r="F15">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>10.92</v>
-      </c>
-      <c r="D16">
-        <v>243.42</v>
-      </c>
-      <c r="E16">
-        <v>15.6</v>
-      </c>
-      <c r="F16">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>3.78</v>
-      </c>
-      <c r="D17">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="E17">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="F17">
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>3.87</v>
-      </c>
-      <c r="D18">
-        <v>17.21</v>
-      </c>
-      <c r="E18">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F18">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>1.03</v>
-      </c>
-      <c r="D19">
-        <v>1.77</v>
-      </c>
-      <c r="E19">
-        <v>1.33</v>
-      </c>
-      <c r="F19">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>5.71</v>
-      </c>
-      <c r="D20">
-        <v>39.89</v>
-      </c>
-      <c r="E20">
-        <v>6.32</v>
-      </c>
-      <c r="F20">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>5.59</v>
-      </c>
-      <c r="D21">
-        <v>38.520000000000003</v>
-      </c>
-      <c r="E21">
-        <v>6.21</v>
-      </c>
-      <c r="F21">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D22">
-        <v>2.67</v>
-      </c>
-      <c r="E22">
-        <v>1.63</v>
-      </c>
-      <c r="F22">
-        <v>0.91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BEA915-5F34-D544-9D2E-EA441D8615BD}">
   <dimension ref="B1:N15"/>
   <sheetViews>
@@ -1274,334 +805,334 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>15</v>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>138.91999999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>137.69999999999999</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="11">
         <v>39.19</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>7.21</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <v>7.28</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="11">
         <v>1.87</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="6">
         <v>6.62</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="7">
         <v>6.46</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <v>3.25</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="6">
         <v>5.71</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="7">
         <v>5.59</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="11">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>23444.42</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>22966.69</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>2693.19</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="8">
         <v>74.180000000000007</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="9">
         <v>76.59</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="12">
         <v>6.23</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="8">
         <v>81.05</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="9">
         <v>79.25</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="12">
         <v>17.440000000000001</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="8">
         <v>39.89</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="9">
         <v>38.520000000000003</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="12">
         <v>2.67</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>15</v>
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>6.25</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="9">
         <v>6.17</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>2.36</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>11.43</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="9">
         <v>11.41</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="12">
         <v>3.43</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="6">
         <v>3.78</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="7">
         <v>3.87</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="11">
         <v>1.03</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="6">
         <v>35.520000000000003</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="7">
         <v>35.81</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="11">
         <v>10.92</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>55.05</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <v>53.81</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>9.01</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="8">
         <v>161.71</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="9">
         <v>161.51</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="12">
         <v>35.270000000000003</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="8">
         <v>16.489999999999998</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="9">
         <v>17.21</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="12">
         <v>1.77</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="8">
         <v>1778.26</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="9">
         <v>1818.17</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="12">
         <v>243.42</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1635,6 +1166,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C11:E11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:H10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:H4">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -1655,6 +1206,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4:K4">
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1675,78 +1236,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11:K11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:N10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:N4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:N5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L11:N11">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:N10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:N4">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:N5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:H10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:E11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
